--- a/results/data/CDW1.2.xlsx
+++ b/results/data/CDW1.2.xlsx
@@ -450,7 +450,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1705968.876</v>
+        <v>1727120.135999999</v>
       </c>
       <c r="C2">
         <v>116223.0149999999</v>
@@ -459,16 +459,16 @@
         <v>143534.42</v>
       </c>
       <c r="E2">
-        <v>349914.856</v>
+        <v>349996.8559999999</v>
       </c>
       <c r="F2">
-        <v>474310.866</v>
+        <v>474310.8660000003</v>
       </c>
       <c r="G2">
-        <v>1248457.984000002</v>
+        <v>1361191.480000003</v>
       </c>
       <c r="H2">
-        <v>314375.7400000005</v>
+        <v>316120.0299999998</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -476,7 +476,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1824090.28100001</v>
+        <v>1903613.317000007</v>
       </c>
       <c r="C3">
         <v>115917.256</v>
@@ -485,16 +485,16 @@
         <v>141763.08</v>
       </c>
       <c r="E3">
-        <v>234735.0710000001</v>
+        <v>234735.071</v>
       </c>
       <c r="F3">
-        <v>648629.6440000003</v>
+        <v>648629.6440000001</v>
       </c>
       <c r="G3">
-        <v>1416950.421999998</v>
+        <v>1463516.151999999</v>
       </c>
       <c r="H3">
-        <v>379863.9170000002</v>
+        <v>380410.7770000005</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -502,25 +502,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>1857818.385000006</v>
+        <v>1977125.756000004</v>
       </c>
       <c r="C4">
         <v>137042.726</v>
       </c>
       <c r="D4">
-        <v>92324.522</v>
+        <v>92324.52199999998</v>
       </c>
       <c r="E4">
         <v>504406.615</v>
       </c>
       <c r="F4">
-        <v>470395.9070000002</v>
+        <v>470395.9069999999</v>
       </c>
       <c r="G4">
-        <v>1282255.561000001</v>
+        <v>1329979.525000002</v>
       </c>
       <c r="H4">
-        <v>501096.685999999</v>
+        <v>501160.7859999991</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -528,7 +528,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>2205279.824000002</v>
+        <v>2295864.517</v>
       </c>
       <c r="C5">
         <v>107386.98</v>
@@ -537,16 +537,16 @@
         <v>87209.41000000002</v>
       </c>
       <c r="E5">
-        <v>352255.3939999999</v>
+        <v>378440.794</v>
       </c>
       <c r="F5">
-        <v>459383.1490000001</v>
+        <v>459383.149</v>
       </c>
       <c r="G5">
-        <v>1592074.475000001</v>
+        <v>1639697.842000007</v>
       </c>
       <c r="H5">
-        <v>433969.814</v>
+        <v>434037.784</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -554,25 +554,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>2366732.671999999</v>
+        <v>2451251.181999999</v>
       </c>
       <c r="C6">
-        <v>151379.3640000001</v>
+        <v>152105.5440000001</v>
       </c>
       <c r="D6">
         <v>141291.58</v>
       </c>
       <c r="E6">
-        <v>289692.562</v>
+        <v>289694.662</v>
       </c>
       <c r="F6">
         <v>480969.4550000001</v>
       </c>
       <c r="G6">
-        <v>1730149.862000002</v>
+        <v>1783334.905000001</v>
       </c>
       <c r="H6">
-        <v>790108.4320000012</v>
+        <v>790149.3520000008</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -580,25 +580,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>2140563.833000001</v>
+        <v>2272601.563</v>
       </c>
       <c r="C7">
-        <v>83291.59200000003</v>
+        <v>83341.09199999999</v>
       </c>
       <c r="D7">
         <v>183245.798</v>
       </c>
       <c r="E7">
-        <v>416855.6499999996</v>
+        <v>418200.9099999995</v>
       </c>
       <c r="F7">
         <v>310795.6859999998</v>
       </c>
       <c r="G7">
-        <v>1870513.026999999</v>
+        <v>1936112.166000004</v>
       </c>
       <c r="H7">
-        <v>555593.3449999993</v>
+        <v>556489.875999998</v>
       </c>
     </row>
   </sheetData>

--- a/results/data/CDW1.2.xlsx
+++ b/results/data/CDW1.2.xlsx
@@ -25,9 +25,6 @@
     <t>Inzetten als bouwstof</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Overig inzetten als grondstof</t>
   </si>
   <si>
@@ -35,6 +32,9 @@
   </si>
   <si>
     <t>Sorteren / scheiden</t>
+  </si>
+  <si>
+    <t>overige</t>
   </si>
   <si>
     <t>MeldPeriodeJAAR</t>
@@ -450,7 +450,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1727120.135999999</v>
+        <v>1727120.136</v>
       </c>
       <c r="C2">
         <v>116223.0149999999</v>
@@ -459,16 +459,16 @@
         <v>143534.42</v>
       </c>
       <c r="E2">
+        <v>474310.8660000003</v>
+      </c>
+      <c r="F2">
+        <v>1361191.480000004</v>
+      </c>
+      <c r="G2">
+        <v>316120.0299999998</v>
+      </c>
+      <c r="H2">
         <v>349996.8559999999</v>
-      </c>
-      <c r="F2">
-        <v>474310.8660000003</v>
-      </c>
-      <c r="G2">
-        <v>1361191.480000003</v>
-      </c>
-      <c r="H2">
-        <v>316120.0299999998</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -485,16 +485,16 @@
         <v>141763.08</v>
       </c>
       <c r="E3">
+        <v>648629.6440000001</v>
+      </c>
+      <c r="F3">
+        <v>1463516.151999999</v>
+      </c>
+      <c r="G3">
+        <v>380410.7770000005</v>
+      </c>
+      <c r="H3">
         <v>234735.071</v>
-      </c>
-      <c r="F3">
-        <v>648629.6440000001</v>
-      </c>
-      <c r="G3">
-        <v>1463516.151999999</v>
-      </c>
-      <c r="H3">
-        <v>380410.7770000005</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -511,16 +511,16 @@
         <v>92324.52199999998</v>
       </c>
       <c r="E4">
+        <v>470395.9069999999</v>
+      </c>
+      <c r="F4">
+        <v>1329979.525000003</v>
+      </c>
+      <c r="G4">
+        <v>501160.7859999991</v>
+      </c>
+      <c r="H4">
         <v>504406.615</v>
-      </c>
-      <c r="F4">
-        <v>470395.9069999999</v>
-      </c>
-      <c r="G4">
-        <v>1329979.525000002</v>
-      </c>
-      <c r="H4">
-        <v>501160.7859999991</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -528,7 +528,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>2295864.517</v>
+        <v>2295864.516999999</v>
       </c>
       <c r="C5">
         <v>107386.98</v>
@@ -537,16 +537,16 @@
         <v>87209.41000000002</v>
       </c>
       <c r="E5">
+        <v>459383.149</v>
+      </c>
+      <c r="F5">
+        <v>1639697.842000007</v>
+      </c>
+      <c r="G5">
+        <v>434037.784</v>
+      </c>
+      <c r="H5">
         <v>378440.794</v>
-      </c>
-      <c r="F5">
-        <v>459383.149</v>
-      </c>
-      <c r="G5">
-        <v>1639697.842000007</v>
-      </c>
-      <c r="H5">
-        <v>434037.784</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -554,7 +554,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>2451251.181999999</v>
+        <v>2451251.181999998</v>
       </c>
       <c r="C6">
         <v>152105.5440000001</v>
@@ -563,16 +563,16 @@
         <v>141291.58</v>
       </c>
       <c r="E6">
+        <v>480969.4550000001</v>
+      </c>
+      <c r="F6">
+        <v>1783334.905000001</v>
+      </c>
+      <c r="G6">
+        <v>790149.3520000008</v>
+      </c>
+      <c r="H6">
         <v>289694.662</v>
-      </c>
-      <c r="F6">
-        <v>480969.4550000001</v>
-      </c>
-      <c r="G6">
-        <v>1783334.905000001</v>
-      </c>
-      <c r="H6">
-        <v>790149.3520000008</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -580,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>2272601.563</v>
+        <v>2272601.563000001</v>
       </c>
       <c r="C7">
         <v>83341.09199999999</v>
@@ -589,16 +589,16 @@
         <v>183245.798</v>
       </c>
       <c r="E7">
+        <v>310795.6859999998</v>
+      </c>
+      <c r="F7">
+        <v>1936112.166000004</v>
+      </c>
+      <c r="G7">
+        <v>556489.875999998</v>
+      </c>
+      <c r="H7">
         <v>418200.9099999995</v>
-      </c>
-      <c r="F7">
-        <v>310795.6859999998</v>
-      </c>
-      <c r="G7">
-        <v>1936112.166000004</v>
-      </c>
-      <c r="H7">
-        <v>556489.875999998</v>
       </c>
     </row>
   </sheetData>
